--- a/测试需求.xlsx
+++ b/测试需求.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name=" 测试" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
   <si>
     <t>测试记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,19 +82,113 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>热键功能正常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>功能缺失</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11点之前价格识别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11点之前时间同步</t>
+    <t>11点之前价格识别 win7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11点之前时间同步 win7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11点之后价格识别 win7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11点之后时间同步 win7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11点之前价格识别 win10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11点之前时间同步 win10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11点之后价格识别 win10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11点之后时间同步 win10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常</t>
+  </si>
+  <si>
+    <t>正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常</t>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态提交倒计时与实际不符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单枪动态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双枪动态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法正常切换至双枪动态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态策略设置之后出错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国拍模拟切换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热键功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开验证码等相关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试无误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云端存储</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一键登录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -102,7 +196,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,8 +230,32 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -150,8 +268,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -211,22 +341,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" applyFont="0" applyBorder="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -236,11 +400,199 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="样式 1" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -530,181 +882,365 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:D26"/>
+  <dimension ref="B1:N35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="28.75" customWidth="1"/>
-    <col min="4" max="4" width="9.25" customWidth="1"/>
+    <col min="4" max="4" width="25.5" customWidth="1"/>
+    <col min="5" max="5" width="36.625" customWidth="1"/>
+    <col min="6" max="6" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" ht="26.25" customHeight="1">
-      <c r="B3" s="3" t="s">
+    <row r="1" spans="2:14">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" ht="26.25" customHeight="1">
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4" s="1" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="2:14">
+      <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="10" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
+      <c r="E4" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6" s="6"/>
+      <c r="C6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7" s="6"/>
+      <c r="C7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="B8" s="6"/>
+      <c r="C8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" s="6"/>
+      <c r="C9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="N9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10" s="6"/>
+      <c r="C10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="B11" s="6"/>
+      <c r="C11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12" s="6"/>
+      <c r="C12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="12"/>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="B13" s="6"/>
+      <c r="C13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
+      <c r="D13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="12"/>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="B14" s="6"/>
+      <c r="C14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2" t="s">
+      <c r="D14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="12"/>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="B15" s="6"/>
+      <c r="C15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2" t="s">
+      <c r="D15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="B16" s="6"/>
+      <c r="C16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2" t="s">
+      <c r="D16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="12"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="6"/>
+      <c r="C17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="6"/>
+      <c r="C18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="6"/>
+      <c r="C19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2" t="s">
+      <c r="D19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="13"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="6"/>
+      <c r="C20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2" t="s">
+      <c r="D20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="13"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="6"/>
+      <c r="C21" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2" t="s">
+      <c r="D21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="13"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="6"/>
+      <c r="C22" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2" t="s">
+      <c r="D22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="6"/>
+      <c r="C23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
+      <c r="D23" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="13"/>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="6"/>
+      <c r="C24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2" t="s">
+      <c r="D24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="13"/>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="6"/>
+      <c r="C25" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2" t="s">
+      <c r="D25" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="G25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="6"/>
+      <c r="C26" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="D26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="13"/>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="6"/>
+      <c r="C27" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="13"/>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="6"/>
+      <c r="C28" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="13"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="6"/>
+      <c r="C29" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="13"/>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="6"/>
+      <c r="C30" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="13"/>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="7"/>
+      <c r="C31" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="13"/>
+    </row>
+    <row r="35" spans="9:9">
+      <c r="I35" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B5:B31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="正常">
+      <formula>NOT(ISERROR(SEARCH("正常",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="异常">
+      <formula>NOT(ISERROR(SEARCH("异常",D1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
+      <formula1>$D$1:$D$2</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
@@ -714,7 +1250,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C4:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
@@ -722,7 +1258,7 @@
   <sheetData>
     <row r="4" spans="3:4">
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
